--- a/Test cases/3 Тест-кейсы Result Slide Options.xlsx
+++ b/Test cases/3 Тест-кейсы Result Slide Options.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sdv\Резюме\SDV\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Documents\GitHub\iSpring\Test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B093A45-22D4-43AA-A7B5-2F7CFE98E4EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B8F79-662F-4F4A-99AE-84D339241085}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,15 +1038,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1054,19 +1046,27 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,9 +1289,7 @@
   </sheetPr>
   <dimension ref="A1:F423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1307,8 +1305,8 @@
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1330,20 +1328,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1360,8 +1358,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1375,9 +1373,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1392,8 +1390,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
@@ -1408,8 +1406,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3" t="s">
         <v>67</v>
@@ -1422,8 +1420,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
         <v>69</v>
@@ -1436,8 +1434,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6"/>
       <c r="D10" s="3" t="s">
         <v>71</v>
@@ -1450,8 +1448,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
         <v>73</v>
@@ -1464,8 +1462,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6"/>
       <c r="D12" s="3" t="s">
         <v>75</v>
@@ -1478,10 +1476,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1492,10 +1490,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="15" t="s">
         <v>79</v>
       </c>
@@ -1504,10 +1502,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -1518,10 +1516,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="13" t="s">
         <v>80</v>
       </c>
@@ -1530,8 +1528,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="6"/>
       <c r="D17" s="12" t="s">
         <v>45</v>
@@ -1544,8 +1542,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6"/>
       <c r="D18" s="12" t="s">
         <v>46</v>
@@ -1558,8 +1556,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3" t="s">
         <v>81</v>
@@ -1572,8 +1570,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="6"/>
       <c r="D20" s="3" t="s">
         <v>82</v>
@@ -1586,10 +1584,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1600,10 +1598,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="4" t="s">
         <v>85</v>
       </c>
@@ -1612,10 +1610,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="4" t="s">
         <v>86</v>
       </c>
@@ -1624,10 +1622,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="4" t="s">
         <v>87</v>
       </c>
@@ -1636,10 +1634,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>88</v>
       </c>
@@ -1648,10 +1646,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>89</v>
       </c>
@@ -1660,10 +1658,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="20" t="s">
         <v>90</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1674,10 +1672,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="4" t="s">
         <v>92</v>
       </c>
@@ -1686,8 +1684,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="6"/>
       <c r="D29" s="3" t="s">
         <v>93</v>
@@ -1700,10 +1698,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="20" t="s">
         <v>94</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1714,10 +1712,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="4" t="s">
         <v>96</v>
       </c>
@@ -1726,10 +1724,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="4" t="s">
         <v>97</v>
       </c>
@@ -1737,11 +1735,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="4" t="s">
         <v>98</v>
       </c>
@@ -1749,9 +1747,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+    <row r="34" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="6"/>
       <c r="D34" s="3" t="s">
         <v>99</v>
@@ -1764,8 +1762,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="6"/>
       <c r="D35" s="3" t="s">
         <v>100</v>
@@ -1777,11 +1775,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+    <row r="36" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -1792,10 +1790,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="19"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="4" t="s">
         <v>103</v>
       </c>
@@ -1804,8 +1802,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="6"/>
       <c r="D38" s="3" t="s">
         <v>104</v>
@@ -1818,18 +1816,18 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1846,8 +1844,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="6" t="s">
         <v>28</v>
       </c>
@@ -1861,9 +1859,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+    <row r="42" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="6" t="s">
         <v>29</v>
       </c>
@@ -1878,8 +1876,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="3" t="s">
         <v>64</v>
       </c>
@@ -1894,8 +1892,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="6"/>
       <c r="D44" s="3" t="s">
         <v>110</v>
@@ -1908,10 +1906,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="20" t="s">
         <v>112</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -1922,10 +1920,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="19"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="15" t="s">
         <v>114</v>
       </c>
@@ -1934,10 +1932,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E47" s="13" t="s">
@@ -1948,10 +1946,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="19"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="13" t="s">
         <v>80</v>
       </c>
@@ -1960,8 +1958,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="6"/>
       <c r="D49" s="12" t="s">
         <v>35</v>
@@ -1974,8 +1972,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="6"/>
       <c r="D50" s="12" t="s">
         <v>48</v>
@@ -1987,9 +1985,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="6"/>
       <c r="D51" s="3" t="s">
         <v>115</v>
@@ -2001,9 +1999,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="6"/>
       <c r="D52" s="3" t="s">
         <v>116</v>
@@ -2015,11 +2013,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
+    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="20" t="s">
         <v>117</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -2029,11 +2027,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="18"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="4" t="s">
         <v>85</v>
       </c>
@@ -2041,11 +2039,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="18"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="4" t="s">
         <v>118</v>
       </c>
@@ -2053,11 +2051,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="18"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="4" t="s">
         <v>119</v>
       </c>
@@ -2065,11 +2063,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="4" t="s">
         <v>120</v>
       </c>
@@ -2077,11 +2075,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="19"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="4" t="s">
         <v>121</v>
       </c>
@@ -2089,9 +2087,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="6"/>
       <c r="D59" s="3" t="s">
         <v>122</v>
@@ -2103,9 +2101,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="6"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
@@ -2113,19 +2111,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="26" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -2141,9 +2139,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="6" t="s">
         <v>28</v>
       </c>
@@ -2157,9 +2155,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="6" t="s">
         <v>29</v>
       </c>
@@ -2173,9 +2171,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2189,9 +2187,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="6"/>
       <c r="D66" s="3" t="s">
         <v>126</v>
@@ -2203,9 +2201,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="6"/>
       <c r="D67" s="3" t="s">
         <v>128</v>
@@ -2217,11 +2215,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="20" t="s">
         <v>129</v>
       </c>
       <c r="E68" s="15" t="s">
@@ -2231,11 +2229,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
+    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="19"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="15" t="s">
         <v>79</v>
       </c>
@@ -2243,11 +2241,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="24" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="13" t="s">
@@ -2257,11 +2255,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="19"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="13" t="s">
         <v>80</v>
       </c>
@@ -2269,9 +2267,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="6"/>
       <c r="D72" s="12" t="s">
         <v>36</v>
@@ -2283,9 +2281,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="6"/>
       <c r="D73" s="12" t="s">
         <v>37</v>
@@ -2297,9 +2295,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="6"/>
       <c r="D74" s="3" t="s">
         <v>39</v>
@@ -2311,9 +2309,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="6"/>
       <c r="D75" s="3" t="s">
         <v>40</v>
@@ -2325,11 +2323,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
+    <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -2339,11 +2337,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="18"/>
+      <c r="D77" s="21"/>
       <c r="E77" s="4" t="s">
         <v>130</v>
       </c>
@@ -2351,11 +2349,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="18"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="4" t="s">
         <v>118</v>
       </c>
@@ -2363,11 +2361,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="18"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="4" t="s">
         <v>87</v>
       </c>
@@ -2375,11 +2373,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="18"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="4" t="s">
         <v>131</v>
       </c>
@@ -2387,11 +2385,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="19"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="4" t="s">
         <v>89</v>
       </c>
@@ -2399,11 +2397,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="20" t="s">
         <v>132</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -2413,11 +2411,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="19"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="4" t="s">
         <v>133</v>
       </c>
@@ -2425,9 +2423,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
+    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="6"/>
       <c r="D84" s="3" t="s">
         <v>134</v>
@@ -2439,9 +2437,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="6"/>
       <c r="D85" s="3" t="s">
         <v>52</v>
@@ -2453,19 +2451,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="23"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+    <row r="87" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="26" t="s">
         <v>135</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -2481,9 +2479,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="6" t="s">
         <v>28</v>
       </c>
@@ -2497,9 +2495,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="6" t="s">
         <v>29</v>
       </c>
@@ -2513,9 +2511,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
+    <row r="90" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="3" t="s">
         <v>64</v>
       </c>
@@ -2529,9 +2527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="6"/>
       <c r="D91" s="3" t="s">
         <v>136</v>
@@ -2543,9 +2541,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="6"/>
       <c r="D92" s="3" t="s">
         <v>137</v>
@@ -2557,9 +2555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="6"/>
       <c r="D93" s="3" t="s">
         <v>138</v>
@@ -2571,9 +2569,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="6"/>
       <c r="D94" s="3" t="s">
         <v>140</v>
@@ -2585,11 +2583,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="20" t="s">
         <v>142</v>
       </c>
       <c r="E95" s="15" t="s">
@@ -2599,11 +2597,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
+    <row r="96" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="19"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="15" t="s">
         <v>114</v>
       </c>
@@ -2611,11 +2609,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E97" s="13" t="s">
@@ -2625,11 +2623,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="19"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="13" t="s">
         <v>80</v>
       </c>
@@ -2637,9 +2635,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="6"/>
       <c r="D99" s="12" t="s">
         <v>43</v>
@@ -2651,9 +2649,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="6"/>
       <c r="D100" s="12" t="s">
         <v>44</v>
@@ -2665,9 +2663,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="6"/>
       <c r="D101" s="3" t="s">
         <v>49</v>
@@ -2679,9 +2677,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="6"/>
       <c r="D102" s="3" t="s">
         <v>50</v>
@@ -2693,11 +2691,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
+    <row r="103" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -2707,11 +2705,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="18"/>
+      <c r="D104" s="21"/>
       <c r="E104" s="4" t="s">
         <v>130</v>
       </c>
@@ -2719,11 +2717,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="18"/>
+      <c r="D105" s="21"/>
       <c r="E105" s="4" t="s">
         <v>86</v>
       </c>
@@ -2731,11 +2729,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="18"/>
+      <c r="D106" s="21"/>
       <c r="E106" s="4" t="s">
         <v>143</v>
       </c>
@@ -2743,11 +2741,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="18"/>
+      <c r="D107" s="21"/>
       <c r="E107" s="4" t="s">
         <v>88</v>
       </c>
@@ -2755,11 +2753,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="19"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="4" t="s">
         <v>144</v>
       </c>
@@ -2767,11 +2765,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
+    <row r="109" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="20" t="s">
         <v>145</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -2781,11 +2779,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
+    <row r="110" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="18"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="4" t="s">
         <v>96</v>
       </c>
@@ -2793,11 +2791,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="18"/>
+      <c r="D111" s="21"/>
       <c r="E111" s="4" t="s">
         <v>146</v>
       </c>
@@ -2805,11 +2803,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="19"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="4" t="s">
         <v>147</v>
       </c>
@@ -2817,9 +2815,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
+    <row r="113" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="6"/>
       <c r="D113" s="3" t="s">
         <v>148</v>
@@ -2831,9 +2829,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="6"/>
       <c r="D114" s="3" t="s">
         <v>149</v>
@@ -2845,19 +2843,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="23"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
+    <row r="116" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="26" t="s">
         <v>150</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -2873,9 +2871,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="21"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="6" t="s">
         <v>28</v>
       </c>
@@ -2889,9 +2887,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
+    <row r="118" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="21"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="6" t="s">
         <v>29</v>
       </c>
@@ -2905,9 +2903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
+    <row r="119" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="21"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="3" t="s">
         <v>64</v>
       </c>
@@ -2921,9 +2919,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="6"/>
       <c r="D120" s="3" t="s">
         <v>136</v>
@@ -2935,9 +2933,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="6"/>
       <c r="D121" s="3" t="s">
         <v>152</v>
@@ -2949,9 +2947,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="21"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="6"/>
       <c r="D122" s="3" t="s">
         <v>138</v>
@@ -2963,9 +2961,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="6"/>
       <c r="D123" s="3" t="s">
         <v>154</v>
@@ -2977,11 +2975,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="20" t="s">
         <v>142</v>
       </c>
       <c r="E124" s="15" t="s">
@@ -2991,11 +2989,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
+    <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="21"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="19"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="15" t="s">
         <v>114</v>
       </c>
@@ -3003,11 +3001,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="21"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="28" t="s">
+      <c r="D126" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E126" s="13" t="s">
@@ -3017,11 +3015,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="19"/>
+      <c r="D127" s="22"/>
       <c r="E127" s="13" t="s">
         <v>80</v>
       </c>
@@ -3029,9 +3027,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="21"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="6"/>
       <c r="D128" s="12" t="s">
         <v>43</v>
@@ -3043,9 +3041,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
+    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="6"/>
       <c r="D129" s="12" t="s">
         <v>44</v>
@@ -3057,9 +3055,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
+    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="6"/>
       <c r="D130" s="3" t="s">
         <v>49</v>
@@ -3071,9 +3069,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
+    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="21"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="6"/>
       <c r="D131" s="3" t="s">
         <v>50</v>
@@ -3085,11 +3083,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
+    <row r="132" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E132" s="4" t="s">
@@ -3099,11 +3097,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
+    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="18"/>
+      <c r="D133" s="21"/>
       <c r="E133" s="4" t="s">
         <v>155</v>
       </c>
@@ -3111,11 +3109,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
+    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="18"/>
+      <c r="D134" s="21"/>
       <c r="E134" s="4" t="s">
         <v>86</v>
       </c>
@@ -3123,11 +3121,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="18"/>
+      <c r="D135" s="21"/>
       <c r="E135" s="4" t="s">
         <v>143</v>
       </c>
@@ -3135,11 +3133,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
+    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="21"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="18"/>
+      <c r="D136" s="21"/>
       <c r="E136" s="4" t="s">
         <v>88</v>
       </c>
@@ -3147,11 +3145,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
+    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="19"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="4" t="s">
         <v>144</v>
       </c>
@@ -3159,11 +3157,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
+    <row r="138" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="21"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="20" t="s">
         <v>145</v>
       </c>
       <c r="E138" s="4" t="s">
@@ -3173,11 +3171,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
+    <row r="139" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="18"/>
+      <c r="D139" s="21"/>
       <c r="E139" s="4" t="s">
         <v>156</v>
       </c>
@@ -3185,11 +3183,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
+    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="21"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="18"/>
+      <c r="D140" s="21"/>
       <c r="E140" s="4" t="s">
         <v>146</v>
       </c>
@@ -3197,11 +3195,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="19"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="4" t="s">
         <v>98</v>
       </c>
@@ -3209,9 +3207,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
+    <row r="142" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="6"/>
       <c r="D142" s="3" t="s">
         <v>148</v>
@@ -3223,9 +3221,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="6"/>
       <c r="D143" s="3" t="s">
         <v>149</v>
@@ -3237,19 +3235,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="23"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="19"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
+    <row r="145" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="26" t="s">
         <v>157</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -3265,9 +3263,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
+    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="6" t="s">
         <v>28</v>
       </c>
@@ -3281,9 +3279,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
+    <row r="147" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="6" t="s">
         <v>29</v>
       </c>
@@ -3297,9 +3295,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
+    <row r="148" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="3" t="s">
         <v>64</v>
       </c>
@@ -3313,9 +3311,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
+    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="6"/>
       <c r="D149" s="3" t="s">
         <v>136</v>
@@ -3327,9 +3325,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
+    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="6"/>
       <c r="D150" s="3" t="s">
         <v>152</v>
@@ -3341,9 +3339,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
+    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="6"/>
       <c r="D151" s="3" t="s">
         <v>158</v>
@@ -3355,9 +3353,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
+    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="6"/>
       <c r="D152" s="3" t="s">
         <v>140</v>
@@ -3369,11 +3367,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
+    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="20" t="s">
         <v>142</v>
       </c>
       <c r="E153" s="15" t="s">
@@ -3383,11 +3381,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
+    <row r="154" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="19"/>
+      <c r="D154" s="22"/>
       <c r="E154" s="15" t="s">
         <v>114</v>
       </c>
@@ -3395,11 +3393,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
+    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="21"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="28" t="s">
+      <c r="D155" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E155" s="13" t="s">
@@ -3409,11 +3407,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
+    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="19"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="13" t="s">
         <v>80</v>
       </c>
@@ -3421,9 +3419,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
+    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="21"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="6"/>
       <c r="D157" s="12" t="s">
         <v>43</v>
@@ -3435,9 +3433,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
+    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="21"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="6"/>
       <c r="D158" s="12" t="s">
         <v>44</v>
@@ -3449,9 +3447,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
+    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="6"/>
       <c r="D159" s="3" t="s">
         <v>49</v>
@@ -3463,9 +3461,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
+    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="21"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="6"/>
       <c r="D160" s="3" t="s">
         <v>50</v>
@@ -3477,11 +3475,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
+    <row r="161" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E161" s="4" t="s">
@@ -3491,11 +3489,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="18"/>
-      <c r="B162" s="18"/>
+    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="21"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="18"/>
+      <c r="D162" s="21"/>
       <c r="E162" s="4" t="s">
         <v>155</v>
       </c>
@@ -3503,11 +3501,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
+    <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="21"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="18"/>
+      <c r="D163" s="21"/>
       <c r="E163" s="4" t="s">
         <v>86</v>
       </c>
@@ -3515,11 +3513,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
+    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="18"/>
+      <c r="D164" s="21"/>
       <c r="E164" s="4" t="s">
         <v>143</v>
       </c>
@@ -3527,11 +3525,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
+    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="18"/>
+      <c r="D165" s="21"/>
       <c r="E165" s="4" t="s">
         <v>88</v>
       </c>
@@ -3539,11 +3537,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
+    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="21"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="19"/>
+      <c r="D166" s="22"/>
       <c r="E166" s="4" t="s">
         <v>144</v>
       </c>
@@ -3551,11 +3549,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
+    <row r="167" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="21"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="20" t="s">
         <v>145</v>
       </c>
       <c r="E167" s="4" t="s">
@@ -3565,11 +3563,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="18"/>
-      <c r="B168" s="18"/>
+    <row r="168" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="21"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="18"/>
+      <c r="D168" s="21"/>
       <c r="E168" s="4" t="s">
         <v>156</v>
       </c>
@@ -3577,11 +3575,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
+    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="21"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="18"/>
+      <c r="D169" s="21"/>
       <c r="E169" s="4" t="s">
         <v>97</v>
       </c>
@@ -3589,11 +3587,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
+    <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="21"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="19"/>
+      <c r="D170" s="22"/>
       <c r="E170" s="4" t="s">
         <v>147</v>
       </c>
@@ -3601,9 +3599,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18"/>
+    <row r="171" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="21"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="6"/>
       <c r="D171" s="3" t="s">
         <v>148</v>
@@ -3615,9 +3613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="19"/>
-      <c r="B172" s="19"/>
+    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="6"/>
       <c r="D172" s="3" t="s">
         <v>149</v>
@@ -3629,19 +3627,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="23"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="19"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
+    <row r="174" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="26" t="s">
         <v>159</v>
       </c>
       <c r="C174" s="3" t="s">
@@ -3657,9 +3655,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
+    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="21"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="6" t="s">
         <v>28</v>
       </c>
@@ -3673,9 +3671,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
+    <row r="176" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="21"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="6" t="s">
         <v>29</v>
       </c>
@@ -3689,13 +3687,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
+    <row r="177" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="21"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="28" t="s">
+      <c r="D177" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E177" s="13" t="s">
@@ -3705,11 +3703,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
+    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="21"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="19"/>
+      <c r="D178" s="22"/>
       <c r="E178" s="13" t="s">
         <v>80</v>
       </c>
@@ -3717,9 +3715,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
+    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="21"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="6"/>
       <c r="D179" s="12" t="s">
         <v>164</v>
@@ -3731,9 +3729,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
+    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="21"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="6"/>
       <c r="D180" s="12" t="s">
         <v>165</v>
@@ -3745,9 +3743,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
+    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="21"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="6"/>
       <c r="D181" s="3" t="s">
         <v>166</v>
@@ -3759,9 +3757,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="18"/>
-      <c r="B182" s="18"/>
+    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="21"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="6"/>
       <c r="D182" s="3" t="s">
         <v>167</v>
@@ -3773,11 +3771,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="18"/>
-      <c r="B183" s="18"/>
+    <row r="183" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="21"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="24" t="s">
+      <c r="D183" s="20" t="s">
         <v>168</v>
       </c>
       <c r="E183" s="4" t="s">
@@ -3787,11 +3785,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="18"/>
-      <c r="B184" s="18"/>
+    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="21"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="19"/>
+      <c r="D184" s="22"/>
       <c r="E184" s="4" t="s">
         <v>89</v>
       </c>
@@ -3799,9 +3797,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="18"/>
-      <c r="B185" s="18"/>
+    <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="21"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="6"/>
       <c r="D185" s="3" t="s">
         <v>169</v>
@@ -3813,9 +3811,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
+    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="21"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="6"/>
       <c r="D186" s="3" t="s">
         <v>170</v>
@@ -3827,9 +3825,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
+    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="21"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="6"/>
       <c r="D187" s="3" t="s">
         <v>171</v>
@@ -3841,9 +3839,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="19"/>
-      <c r="B188" s="19"/>
+    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="22"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="6"/>
       <c r="D188" s="3" t="s">
         <v>122</v>
@@ -3855,19 +3853,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
-      <c r="B189" s="22"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22"/>
-      <c r="E189" s="23"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="19"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="17" t="s">
+    <row r="190" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B190" s="20" t="s">
+      <c r="B190" s="26" t="s">
         <v>172</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -3883,9 +3881,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
+    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="21"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="6" t="s">
         <v>28</v>
       </c>
@@ -3899,9 +3897,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
+    <row r="192" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="21"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="6" t="s">
         <v>29</v>
       </c>
@@ -3915,13 +3913,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18"/>
+    <row r="193" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="21"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D193" s="28" t="s">
+      <c r="D193" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E193" s="13" t="s">
@@ -3931,11 +3929,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
+    <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="21"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="6"/>
-      <c r="D194" s="19"/>
+      <c r="D194" s="22"/>
       <c r="E194" s="13" t="s">
         <v>80</v>
       </c>
@@ -3943,9 +3941,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
+    <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="21"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="6"/>
       <c r="D195" s="12" t="s">
         <v>164</v>
@@ -3957,9 +3955,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="18"/>
-      <c r="B196" s="18"/>
+    <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A196" s="21"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="6"/>
       <c r="D196" s="12" t="s">
         <v>165</v>
@@ -3971,9 +3969,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="18"/>
-      <c r="B197" s="18"/>
+    <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="21"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="6"/>
       <c r="D197" s="3" t="s">
         <v>166</v>
@@ -3985,9 +3983,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
+    <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="21"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="6"/>
       <c r="D198" s="3" t="s">
         <v>167</v>
@@ -3999,11 +3997,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="18"/>
-      <c r="B199" s="18"/>
+    <row r="199" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="21"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="20" t="s">
         <v>168</v>
       </c>
       <c r="E199" s="4" t="s">
@@ -4013,11 +4011,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="18"/>
-      <c r="B200" s="18"/>
+    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="21"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="19"/>
+      <c r="D200" s="22"/>
       <c r="E200" s="4" t="s">
         <v>89</v>
       </c>
@@ -4025,9 +4023,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="18"/>
-      <c r="B201" s="18"/>
+    <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="21"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="6"/>
       <c r="D201" s="3" t="s">
         <v>169</v>
@@ -4039,9 +4037,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="18"/>
-      <c r="B202" s="18"/>
+    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="21"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="6"/>
       <c r="D202" s="3" t="s">
         <v>175</v>
@@ -4053,9 +4051,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="18"/>
-      <c r="B203" s="18"/>
+    <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="21"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="6"/>
       <c r="D203" s="3" t="s">
         <v>171</v>
@@ -4067,9 +4065,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="19"/>
-      <c r="B204" s="19"/>
+    <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="22"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="6"/>
       <c r="D204" s="3" t="s">
         <v>122</v>
@@ -4081,19 +4079,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
-      <c r="B205" s="22"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="23"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="19"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="17" t="s">
+    <row r="206" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A206" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="20" t="s">
+      <c r="B206" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -4109,9 +4107,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="18"/>
-      <c r="B207" s="18"/>
+    <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="6" t="s">
         <v>28</v>
       </c>
@@ -4125,9 +4123,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="18"/>
-      <c r="B208" s="18"/>
+    <row r="208" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="21"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="6" t="s">
         <v>29</v>
       </c>
@@ -4141,13 +4139,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="18"/>
-      <c r="B209" s="18"/>
+    <row r="209" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="21"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D209" s="28" t="s">
+      <c r="D209" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E209" s="13" t="s">
@@ -4157,11 +4155,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="18"/>
-      <c r="B210" s="18"/>
+    <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="21"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="6"/>
-      <c r="D210" s="19"/>
+      <c r="D210" s="22"/>
       <c r="E210" s="13" t="s">
         <v>80</v>
       </c>
@@ -4169,9 +4167,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
+    <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="21"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="6"/>
       <c r="D211" s="12" t="s">
         <v>164</v>
@@ -4183,9 +4181,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="18"/>
-      <c r="B212" s="18"/>
+    <row r="212" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="21"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="6"/>
       <c r="D212" s="12" t="s">
         <v>165</v>
@@ -4197,9 +4195,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="18"/>
-      <c r="B213" s="18"/>
+    <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="21"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="6"/>
       <c r="D213" s="3" t="s">
         <v>166</v>
@@ -4211,9 +4209,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="18"/>
-      <c r="B214" s="18"/>
+    <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="21"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="6"/>
       <c r="D214" s="3" t="s">
         <v>167</v>
@@ -4225,11 +4223,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="18"/>
-      <c r="B215" s="18"/>
+    <row r="215" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="21"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="24" t="s">
+      <c r="D215" s="20" t="s">
         <v>168</v>
       </c>
       <c r="E215" s="4" t="s">
@@ -4239,11 +4237,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="18"/>
-      <c r="B216" s="18"/>
+    <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A216" s="21"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="19"/>
+      <c r="D216" s="22"/>
       <c r="E216" s="4" t="s">
         <v>89</v>
       </c>
@@ -4251,9 +4249,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="18"/>
-      <c r="B217" s="18"/>
+    <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="21"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="6"/>
       <c r="D217" s="3" t="s">
         <v>169</v>
@@ -4265,9 +4263,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="18"/>
-      <c r="B218" s="18"/>
+    <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="6"/>
       <c r="D218" s="3" t="s">
         <v>179</v>
@@ -4279,9 +4277,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="18"/>
-      <c r="B219" s="18"/>
+    <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="6"/>
       <c r="D219" s="3" t="s">
         <v>171</v>
@@ -4293,9 +4291,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="19"/>
-      <c r="B220" s="19"/>
+    <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="6"/>
       <c r="D220" s="3" t="s">
         <v>122</v>
@@ -4307,19 +4305,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="23"/>
+      <c r="B221" s="18"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="19"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="17" t="s">
+    <row r="222" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="20" t="s">
+      <c r="B222" s="26" t="s">
         <v>180</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -4335,9 +4333,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="18"/>
-      <c r="B223" s="18"/>
+    <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A223" s="21"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="6" t="s">
         <v>28</v>
       </c>
@@ -4351,9 +4349,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="18"/>
-      <c r="B224" s="18"/>
+    <row r="224" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="21"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="6" t="s">
         <v>29</v>
       </c>
@@ -4367,13 +4365,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="18"/>
-      <c r="B225" s="18"/>
+    <row r="225" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="21"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D225" s="28" t="s">
+      <c r="D225" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E225" s="13" t="s">
@@ -4383,11 +4381,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="18"/>
-      <c r="B226" s="18"/>
+    <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A226" s="21"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="6"/>
-      <c r="D226" s="19"/>
+      <c r="D226" s="22"/>
       <c r="E226" s="13" t="s">
         <v>80</v>
       </c>
@@ -4395,9 +4393,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="18"/>
-      <c r="B227" s="18"/>
+    <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="21"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="6"/>
       <c r="D227" s="12" t="s">
         <v>164</v>
@@ -4409,9 +4407,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="18"/>
-      <c r="B228" s="18"/>
+    <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A228" s="21"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="6"/>
       <c r="D228" s="12" t="s">
         <v>165</v>
@@ -4423,9 +4421,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="18"/>
-      <c r="B229" s="18"/>
+    <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="21"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="6"/>
       <c r="D229" s="3" t="s">
         <v>166</v>
@@ -4437,9 +4435,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="18"/>
-      <c r="B230" s="18"/>
+    <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="21"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="6"/>
       <c r="D230" s="3" t="s">
         <v>167</v>
@@ -4451,11 +4449,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="18"/>
-      <c r="B231" s="18"/>
+    <row r="231" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="21"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="6"/>
-      <c r="D231" s="24" t="s">
+      <c r="D231" s="20" t="s">
         <v>168</v>
       </c>
       <c r="E231" s="4" t="s">
@@ -4465,11 +4463,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="18"/>
-      <c r="B232" s="18"/>
+    <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A232" s="21"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="19"/>
+      <c r="D232" s="22"/>
       <c r="E232" s="4" t="s">
         <v>89</v>
       </c>
@@ -4477,9 +4475,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="18"/>
-      <c r="B233" s="18"/>
+    <row r="233" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A233" s="21"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="6"/>
       <c r="D233" s="3" t="s">
         <v>169</v>
@@ -4491,9 +4489,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="18"/>
-      <c r="B234" s="18"/>
+    <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A234" s="21"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="6"/>
       <c r="D234" s="3" t="s">
         <v>181</v>
@@ -4505,9 +4503,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="18"/>
-      <c r="B235" s="18"/>
+    <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A235" s="21"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="6"/>
       <c r="D235" s="3" t="s">
         <v>171</v>
@@ -4519,9 +4517,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="19"/>
-      <c r="B236" s="19"/>
+    <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A236" s="22"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="6"/>
       <c r="D236" s="3" t="s">
         <v>182</v>
@@ -4533,19 +4531,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="23"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="19"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="17" t="s">
+    <row r="238" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A238" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B238" s="20" t="s">
+      <c r="B238" s="26" t="s">
         <v>183</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -4561,9 +4559,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="18"/>
-      <c r="B239" s="18"/>
+    <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A239" s="21"/>
+      <c r="B239" s="21"/>
       <c r="C239" s="6" t="s">
         <v>28</v>
       </c>
@@ -4577,9 +4575,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="18"/>
-      <c r="B240" s="18"/>
+    <row r="240" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="21"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="6" t="s">
         <v>29</v>
       </c>
@@ -4593,13 +4591,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="18"/>
-      <c r="B241" s="18"/>
+    <row r="241" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="21"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D241" s="28" t="s">
+      <c r="D241" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E241" s="13" t="s">
@@ -4609,11 +4607,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="18"/>
-      <c r="B242" s="18"/>
+    <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A242" s="21"/>
+      <c r="B242" s="21"/>
       <c r="C242" s="6"/>
-      <c r="D242" s="19"/>
+      <c r="D242" s="22"/>
       <c r="E242" s="13" t="s">
         <v>80</v>
       </c>
@@ -4621,9 +4619,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="18"/>
-      <c r="B243" s="18"/>
+    <row r="243" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A243" s="21"/>
+      <c r="B243" s="21"/>
       <c r="C243" s="6"/>
       <c r="D243" s="12" t="s">
         <v>164</v>
@@ -4635,9 +4633,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="18"/>
-      <c r="B244" s="18"/>
+    <row r="244" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A244" s="21"/>
+      <c r="B244" s="21"/>
       <c r="C244" s="6"/>
       <c r="D244" s="12" t="s">
         <v>165</v>
@@ -4649,9 +4647,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="18"/>
-      <c r="B245" s="18"/>
+    <row r="245" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A245" s="21"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="6"/>
       <c r="D245" s="3" t="s">
         <v>166</v>
@@ -4663,9 +4661,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="18"/>
-      <c r="B246" s="18"/>
+    <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A246" s="21"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="6"/>
       <c r="D246" s="3" t="s">
         <v>167</v>
@@ -4677,11 +4675,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="18"/>
-      <c r="B247" s="18"/>
+    <row r="247" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="21"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="6"/>
-      <c r="D247" s="24" t="s">
+      <c r="D247" s="20" t="s">
         <v>168</v>
       </c>
       <c r="E247" s="4" t="s">
@@ -4691,11 +4689,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="18"/>
-      <c r="B248" s="18"/>
+    <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A248" s="21"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="19"/>
+      <c r="D248" s="22"/>
       <c r="E248" s="4" t="s">
         <v>89</v>
       </c>
@@ -4703,9 +4701,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="18"/>
-      <c r="B249" s="18"/>
+    <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A249" s="21"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="6"/>
       <c r="D249" s="3" t="s">
         <v>169</v>
@@ -4717,9 +4715,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="18"/>
-      <c r="B250" s="18"/>
+    <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A250" s="21"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="6"/>
       <c r="D250" s="3" t="s">
         <v>186</v>
@@ -4731,9 +4729,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="18"/>
-      <c r="B251" s="18"/>
+    <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A251" s="21"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="6"/>
       <c r="D251" s="3" t="s">
         <v>171</v>
@@ -4745,9 +4743,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="19"/>
-      <c r="B252" s="19"/>
+    <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="6"/>
       <c r="D252" s="3" t="s">
         <v>182</v>
@@ -4759,19 +4757,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
-      <c r="E253" s="23"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="19"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="17" t="s">
+    <row r="254" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B254" s="20" t="s">
+      <c r="B254" s="26" t="s">
         <v>187</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -4787,9 +4785,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="18"/>
-      <c r="B255" s="18"/>
+    <row r="255" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A255" s="21"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="6" t="s">
         <v>28</v>
       </c>
@@ -4803,9 +4801,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="18"/>
-      <c r="B256" s="18"/>
+    <row r="256" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="21"/>
+      <c r="B256" s="21"/>
       <c r="C256" s="6" t="s">
         <v>29</v>
       </c>
@@ -4819,13 +4817,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="18"/>
-      <c r="B257" s="18"/>
+    <row r="257" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="21"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D257" s="28" t="s">
+      <c r="D257" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E257" s="13" t="s">
@@ -4835,11 +4833,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="18"/>
-      <c r="B258" s="18"/>
+    <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A258" s="21"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="6"/>
-      <c r="D258" s="19"/>
+      <c r="D258" s="22"/>
       <c r="E258" s="13" t="s">
         <v>80</v>
       </c>
@@ -4847,9 +4845,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="18"/>
-      <c r="B259" s="18"/>
+    <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A259" s="21"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="6"/>
       <c r="D259" s="12" t="s">
         <v>164</v>
@@ -4861,9 +4859,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="18"/>
-      <c r="B260" s="18"/>
+    <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A260" s="21"/>
+      <c r="B260" s="21"/>
       <c r="C260" s="6"/>
       <c r="D260" s="12" t="s">
         <v>165</v>
@@ -4875,9 +4873,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="18"/>
-      <c r="B261" s="18"/>
+    <row r="261" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A261" s="21"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="6"/>
       <c r="D261" s="3" t="s">
         <v>166</v>
@@ -4889,9 +4887,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="18"/>
-      <c r="B262" s="18"/>
+    <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A262" s="21"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="6"/>
       <c r="D262" s="3" t="s">
         <v>167</v>
@@ -4903,11 +4901,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="18"/>
-      <c r="B263" s="18"/>
+    <row r="263" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="21"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="6"/>
-      <c r="D263" s="24" t="s">
+      <c r="D263" s="20" t="s">
         <v>168</v>
       </c>
       <c r="E263" s="4" t="s">
@@ -4917,11 +4915,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="18"/>
-      <c r="B264" s="18"/>
+    <row r="264" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A264" s="21"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="19"/>
+      <c r="D264" s="22"/>
       <c r="E264" s="4" t="s">
         <v>89</v>
       </c>
@@ -4929,9 +4927,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="18"/>
-      <c r="B265" s="18"/>
+    <row r="265" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="21"/>
+      <c r="B265" s="21"/>
       <c r="C265" s="6"/>
       <c r="D265" s="3" t="s">
         <v>169</v>
@@ -4943,9 +4941,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="18"/>
-      <c r="B266" s="18"/>
+    <row r="266" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A266" s="21"/>
+      <c r="B266" s="21"/>
       <c r="C266" s="6"/>
       <c r="D266" s="3" t="s">
         <v>188</v>
@@ -4957,9 +4955,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="18"/>
-      <c r="B267" s="18"/>
+    <row r="267" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A267" s="21"/>
+      <c r="B267" s="21"/>
       <c r="C267" s="6"/>
       <c r="D267" s="3" t="s">
         <v>171</v>
@@ -4971,9 +4969,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="19"/>
-      <c r="B268" s="19"/>
+    <row r="268" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A268" s="22"/>
+      <c r="B268" s="22"/>
       <c r="C268" s="6"/>
       <c r="D268" s="3" t="s">
         <v>182</v>
@@ -4985,21 +4983,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="29" t="s">
+    <row r="269" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A269" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B269" s="22"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
-      <c r="E269" s="23"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="19"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="17" t="s">
+    <row r="270" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B270" s="20" t="s">
+      <c r="B270" s="26" t="s">
         <v>190</v>
       </c>
       <c r="C270" s="3" t="s">
@@ -5015,9 +5013,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="18"/>
-      <c r="B271" s="18"/>
+    <row r="271" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A271" s="21"/>
+      <c r="B271" s="21"/>
       <c r="C271" s="6" t="s">
         <v>28</v>
       </c>
@@ -5031,9 +5029,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="18"/>
-      <c r="B272" s="18"/>
+    <row r="272" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="21"/>
+      <c r="B272" s="21"/>
       <c r="C272" s="6" t="s">
         <v>29</v>
       </c>
@@ -5047,9 +5045,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="18"/>
-      <c r="B273" s="18"/>
+    <row r="273" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="21"/>
+      <c r="B273" s="21"/>
       <c r="C273" s="3" t="s">
         <v>64</v>
       </c>
@@ -5063,11 +5061,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="18"/>
-      <c r="B274" s="18"/>
+    <row r="274" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A274" s="21"/>
+      <c r="B274" s="21"/>
       <c r="C274" s="6"/>
-      <c r="D274" s="28" t="s">
+      <c r="D274" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E274" s="13" t="s">
@@ -5077,11 +5075,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="18"/>
-      <c r="B275" s="18"/>
+    <row r="275" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A275" s="21"/>
+      <c r="B275" s="21"/>
       <c r="C275" s="6"/>
-      <c r="D275" s="19"/>
+      <c r="D275" s="22"/>
       <c r="E275" s="13" t="s">
         <v>80</v>
       </c>
@@ -5089,9 +5087,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="18"/>
-      <c r="B276" s="18"/>
+    <row r="276" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A276" s="21"/>
+      <c r="B276" s="21"/>
       <c r="C276" s="6"/>
       <c r="D276" s="12" t="s">
         <v>53</v>
@@ -5103,9 +5101,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="18"/>
-      <c r="B277" s="18"/>
+    <row r="277" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A277" s="21"/>
+      <c r="B277" s="21"/>
       <c r="C277" s="6"/>
       <c r="D277" s="12" t="s">
         <v>196</v>
@@ -5117,9 +5115,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="18"/>
-      <c r="B278" s="18"/>
+    <row r="278" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A278" s="21"/>
+      <c r="B278" s="21"/>
       <c r="C278" s="6"/>
       <c r="D278" s="3" t="s">
         <v>197</v>
@@ -5131,9 +5129,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="18"/>
-      <c r="B279" s="18"/>
+    <row r="279" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A279" s="21"/>
+      <c r="B279" s="21"/>
       <c r="C279" s="6"/>
       <c r="D279" s="3" t="s">
         <v>198</v>
@@ -5145,11 +5143,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="18"/>
-      <c r="B280" s="18"/>
+    <row r="280" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A280" s="21"/>
+      <c r="B280" s="21"/>
       <c r="C280" s="6"/>
-      <c r="D280" s="24" t="s">
+      <c r="D280" s="20" t="s">
         <v>199</v>
       </c>
       <c r="E280" s="4" t="s">
@@ -5159,11 +5157,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="18"/>
-      <c r="B281" s="18"/>
+    <row r="281" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A281" s="21"/>
+      <c r="B281" s="21"/>
       <c r="C281" s="6"/>
-      <c r="D281" s="18"/>
+      <c r="D281" s="21"/>
       <c r="E281" s="4" t="s">
         <v>201</v>
       </c>
@@ -5171,11 +5169,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="18"/>
-      <c r="B282" s="18"/>
+    <row r="282" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A282" s="21"/>
+      <c r="B282" s="21"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="19"/>
+      <c r="D282" s="22"/>
       <c r="E282" s="4" t="s">
         <v>88</v>
       </c>
@@ -5183,11 +5181,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="18"/>
-      <c r="B283" s="18"/>
+    <row r="283" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A283" s="21"/>
+      <c r="B283" s="21"/>
       <c r="C283" s="6"/>
-      <c r="D283" s="24" t="s">
+      <c r="D283" s="20" t="s">
         <v>202</v>
       </c>
       <c r="E283" s="4" t="s">
@@ -5197,11 +5195,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="18"/>
-      <c r="B284" s="18"/>
+    <row r="284" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A284" s="21"/>
+      <c r="B284" s="21"/>
       <c r="C284" s="6"/>
-      <c r="D284" s="19"/>
+      <c r="D284" s="22"/>
       <c r="E284" s="4" t="s">
         <v>92</v>
       </c>
@@ -5209,9 +5207,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="18"/>
-      <c r="B285" s="18"/>
+    <row r="285" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="21"/>
+      <c r="B285" s="21"/>
       <c r="C285" s="6"/>
       <c r="D285" s="3" t="s">
         <v>203</v>
@@ -5223,11 +5221,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="18"/>
-      <c r="B286" s="18"/>
+    <row r="286" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="21"/>
+      <c r="B286" s="21"/>
       <c r="C286" s="6"/>
-      <c r="D286" s="24" t="s">
+      <c r="D286" s="20" t="s">
         <v>204</v>
       </c>
       <c r="E286" s="4" t="s">
@@ -5237,11 +5235,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="18"/>
-      <c r="B287" s="18"/>
+    <row r="287" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A287" s="21"/>
+      <c r="B287" s="21"/>
       <c r="C287" s="6"/>
-      <c r="D287" s="19"/>
+      <c r="D287" s="22"/>
       <c r="E287" s="4" t="s">
         <v>98</v>
       </c>
@@ -5249,9 +5247,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="18"/>
-      <c r="B288" s="18"/>
+    <row r="288" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="21"/>
+      <c r="B288" s="21"/>
       <c r="C288" s="6"/>
       <c r="D288" s="3" t="s">
         <v>205</v>
@@ -5263,9 +5261,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
+    <row r="289" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A289" s="22"/>
+      <c r="B289" s="22"/>
       <c r="C289" s="6"/>
       <c r="D289" s="3" t="s">
         <v>206</v>
@@ -5277,19 +5275,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="26"/>
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
-      <c r="E290" s="23"/>
+    <row r="290" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A290" s="17"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="18"/>
+      <c r="E290" s="19"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="17" t="s">
+    <row r="291" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B291" s="20" t="s">
+      <c r="B291" s="26" t="s">
         <v>207</v>
       </c>
       <c r="C291" s="3" t="s">
@@ -5305,9 +5303,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="18"/>
-      <c r="B292" s="18"/>
+    <row r="292" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A292" s="21"/>
+      <c r="B292" s="21"/>
       <c r="C292" s="6" t="s">
         <v>28</v>
       </c>
@@ -5321,9 +5319,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="18"/>
-      <c r="B293" s="18"/>
+    <row r="293" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="21"/>
+      <c r="B293" s="21"/>
       <c r="C293" s="6" t="s">
         <v>29</v>
       </c>
@@ -5337,13 +5335,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="18"/>
-      <c r="B294" s="18"/>
+    <row r="294" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="21"/>
+      <c r="B294" s="21"/>
       <c r="C294" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D294" s="24" t="s">
+      <c r="D294" s="20" t="s">
         <v>163</v>
       </c>
       <c r="E294" s="4" t="s">
@@ -5353,11 +5351,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="18"/>
-      <c r="B295" s="18"/>
+    <row r="295" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A295" s="21"/>
+      <c r="B295" s="21"/>
       <c r="C295" s="6"/>
-      <c r="D295" s="19"/>
+      <c r="D295" s="22"/>
       <c r="E295" s="4" t="s">
         <v>80</v>
       </c>
@@ -5365,9 +5363,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="18"/>
-      <c r="B296" s="18"/>
+    <row r="296" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A296" s="21"/>
+      <c r="B296" s="21"/>
       <c r="C296" s="6"/>
       <c r="D296" s="3" t="s">
         <v>164</v>
@@ -5379,9 +5377,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="18"/>
-      <c r="B297" s="18"/>
+    <row r="297" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A297" s="21"/>
+      <c r="B297" s="21"/>
       <c r="C297" s="6"/>
       <c r="D297" s="3" t="s">
         <v>165</v>
@@ -5393,9 +5391,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="18"/>
-      <c r="B298" s="18"/>
+    <row r="298" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A298" s="21"/>
+      <c r="B298" s="21"/>
       <c r="C298" s="6"/>
       <c r="D298" s="3" t="s">
         <v>166</v>
@@ -5407,9 +5405,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="18"/>
-      <c r="B299" s="18"/>
+    <row r="299" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A299" s="21"/>
+      <c r="B299" s="21"/>
       <c r="C299" s="6"/>
       <c r="D299" s="3" t="s">
         <v>167</v>
@@ -5421,11 +5419,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="18"/>
-      <c r="B300" s="18"/>
+    <row r="300" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A300" s="21"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="6"/>
-      <c r="D300" s="24" t="s">
+      <c r="D300" s="20" t="s">
         <v>168</v>
       </c>
       <c r="E300" s="4" t="s">
@@ -5435,11 +5433,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="18"/>
-      <c r="B301" s="18"/>
+    <row r="301" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A301" s="21"/>
+      <c r="B301" s="21"/>
       <c r="C301" s="6"/>
-      <c r="D301" s="18"/>
+      <c r="D301" s="21"/>
       <c r="E301" s="4" t="s">
         <v>201</v>
       </c>
@@ -5447,11 +5445,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="18"/>
-      <c r="B302" s="18"/>
+    <row r="302" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A302" s="21"/>
+      <c r="B302" s="21"/>
       <c r="C302" s="6"/>
-      <c r="D302" s="19"/>
+      <c r="D302" s="22"/>
       <c r="E302" s="4" t="s">
         <v>209</v>
       </c>
@@ -5459,11 +5457,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="18"/>
-      <c r="B303" s="18"/>
+    <row r="303" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A303" s="21"/>
+      <c r="B303" s="21"/>
       <c r="C303" s="6"/>
-      <c r="D303" s="24" t="s">
+      <c r="D303" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E303" s="4" t="s">
@@ -5473,11 +5471,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="18"/>
-      <c r="B304" s="18"/>
+    <row r="304" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A304" s="21"/>
+      <c r="B304" s="21"/>
       <c r="C304" s="6"/>
-      <c r="D304" s="19"/>
+      <c r="D304" s="22"/>
       <c r="E304" s="4" t="s">
         <v>92</v>
       </c>
@@ -5485,9 +5483,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="18"/>
-      <c r="B305" s="18"/>
+    <row r="305" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="21"/>
+      <c r="B305" s="21"/>
       <c r="C305" s="6"/>
       <c r="D305" s="3" t="s">
         <v>211</v>
@@ -5499,9 +5497,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="19"/>
-      <c r="B306" s="19"/>
+    <row r="306" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A306" s="22"/>
+      <c r="B306" s="22"/>
       <c r="C306" s="6"/>
       <c r="D306" s="3" t="s">
         <v>55</v>
@@ -5513,19 +5511,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="26"/>
-      <c r="B307" s="22"/>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
-      <c r="E307" s="23"/>
+    <row r="307" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A307" s="17"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="18"/>
+      <c r="E307" s="19"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="17" t="s">
+    <row r="308" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B308" s="20" t="s">
+      <c r="B308" s="26" t="s">
         <v>212</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -5541,9 +5539,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="18"/>
-      <c r="B309" s="18"/>
+    <row r="309" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A309" s="21"/>
+      <c r="B309" s="21"/>
       <c r="C309" s="6" t="s">
         <v>28</v>
       </c>
@@ -5557,9 +5555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="18"/>
-      <c r="B310" s="18"/>
+    <row r="310" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="21"/>
+      <c r="B310" s="21"/>
       <c r="C310" s="6" t="s">
         <v>29</v>
       </c>
@@ -5573,13 +5571,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="18"/>
-      <c r="B311" s="18"/>
+    <row r="311" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="21"/>
+      <c r="B311" s="21"/>
       <c r="C311" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D311" s="28" t="s">
+      <c r="D311" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E311" s="13" t="s">
@@ -5589,11 +5587,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="18"/>
-      <c r="B312" s="18"/>
+    <row r="312" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A312" s="21"/>
+      <c r="B312" s="21"/>
       <c r="C312" s="6"/>
-      <c r="D312" s="19"/>
+      <c r="D312" s="22"/>
       <c r="E312" s="13" t="s">
         <v>80</v>
       </c>
@@ -5601,9 +5599,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="18"/>
-      <c r="B313" s="18"/>
+    <row r="313" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A313" s="21"/>
+      <c r="B313" s="21"/>
       <c r="C313" s="6"/>
       <c r="D313" s="12" t="s">
         <v>53</v>
@@ -5615,9 +5613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="18"/>
-      <c r="B314" s="18"/>
+    <row r="314" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A314" s="21"/>
+      <c r="B314" s="21"/>
       <c r="C314" s="6"/>
       <c r="D314" s="12" t="s">
         <v>196</v>
@@ -5629,9 +5627,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="18"/>
-      <c r="B315" s="18"/>
+    <row r="315" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A315" s="21"/>
+      <c r="B315" s="21"/>
       <c r="C315" s="6"/>
       <c r="D315" s="3" t="s">
         <v>197</v>
@@ -5643,9 +5641,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="18"/>
-      <c r="B316" s="18"/>
+    <row r="316" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A316" s="21"/>
+      <c r="B316" s="21"/>
       <c r="C316" s="6"/>
       <c r="D316" s="3" t="s">
         <v>198</v>
@@ -5657,11 +5655,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="18"/>
-      <c r="B317" s="18"/>
+    <row r="317" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A317" s="21"/>
+      <c r="B317" s="21"/>
       <c r="C317" s="6"/>
-      <c r="D317" s="24" t="s">
+      <c r="D317" s="20" t="s">
         <v>199</v>
       </c>
       <c r="E317" s="4" t="s">
@@ -5671,11 +5669,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="18"/>
-      <c r="B318" s="18"/>
+    <row r="318" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A318" s="21"/>
+      <c r="B318" s="21"/>
       <c r="C318" s="6"/>
-      <c r="D318" s="18"/>
+      <c r="D318" s="21"/>
       <c r="E318" s="4" t="s">
         <v>214</v>
       </c>
@@ -5683,11 +5681,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="18"/>
-      <c r="B319" s="18"/>
+    <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A319" s="21"/>
+      <c r="B319" s="21"/>
       <c r="C319" s="6"/>
-      <c r="D319" s="19"/>
+      <c r="D319" s="22"/>
       <c r="E319" s="4" t="s">
         <v>131</v>
       </c>
@@ -5695,9 +5693,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="19"/>
-      <c r="B320" s="19"/>
+    <row r="320" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A320" s="22"/>
+      <c r="B320" s="22"/>
       <c r="C320" s="6"/>
       <c r="D320" s="3" t="s">
         <v>182</v>
@@ -5709,19 +5707,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="26"/>
-      <c r="B321" s="22"/>
-      <c r="C321" s="22"/>
-      <c r="D321" s="22"/>
-      <c r="E321" s="23"/>
+    <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A321" s="17"/>
+      <c r="B321" s="18"/>
+      <c r="C321" s="18"/>
+      <c r="D321" s="18"/>
+      <c r="E321" s="19"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="17" t="s">
+    <row r="322" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A322" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B322" s="20" t="s">
+      <c r="B322" s="26" t="s">
         <v>215</v>
       </c>
       <c r="C322" s="3" t="s">
@@ -5737,9 +5735,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="18"/>
-      <c r="B323" s="18"/>
+    <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A323" s="21"/>
+      <c r="B323" s="21"/>
       <c r="C323" s="6" t="s">
         <v>28</v>
       </c>
@@ -5753,9 +5751,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="18"/>
-      <c r="B324" s="18"/>
+    <row r="324" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A324" s="21"/>
+      <c r="B324" s="21"/>
       <c r="C324" s="6" t="s">
         <v>29</v>
       </c>
@@ -5769,9 +5767,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="18"/>
-      <c r="B325" s="18"/>
+    <row r="325" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A325" s="21"/>
+      <c r="B325" s="21"/>
       <c r="C325" s="3" t="s">
         <v>64</v>
       </c>
@@ -5785,11 +5783,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="18"/>
-      <c r="B326" s="18"/>
+    <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A326" s="21"/>
+      <c r="B326" s="21"/>
       <c r="C326" s="6"/>
-      <c r="D326" s="28" t="s">
+      <c r="D326" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E326" s="13" t="s">
@@ -5799,11 +5797,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="18"/>
-      <c r="B327" s="18"/>
+    <row r="327" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" s="21"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="6"/>
-      <c r="D327" s="19"/>
+      <c r="D327" s="22"/>
       <c r="E327" s="13" t="s">
         <v>80</v>
       </c>
@@ -5811,9 +5809,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="18"/>
-      <c r="B328" s="18"/>
+    <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" s="21"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="6"/>
       <c r="D328" s="12" t="s">
         <v>53</v>
@@ -5825,9 +5823,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="18"/>
-      <c r="B329" s="18"/>
+    <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="21"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="6"/>
       <c r="D329" s="12" t="s">
         <v>196</v>
@@ -5839,9 +5837,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="18"/>
-      <c r="B330" s="18"/>
+    <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A330" s="21"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="6"/>
       <c r="D330" s="3" t="s">
         <v>197</v>
@@ -5853,9 +5851,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="18"/>
-      <c r="B331" s="18"/>
+    <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A331" s="21"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="6"/>
       <c r="D331" s="3" t="s">
         <v>198</v>
@@ -5867,11 +5865,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="18"/>
-      <c r="B332" s="18"/>
+    <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A332" s="21"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="6"/>
-      <c r="D332" s="24" t="s">
+      <c r="D332" s="20" t="s">
         <v>199</v>
       </c>
       <c r="E332" s="4" t="s">
@@ -5881,11 +5879,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="18"/>
-      <c r="B333" s="18"/>
+    <row r="333" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A333" s="21"/>
+      <c r="B333" s="21"/>
       <c r="C333" s="6"/>
-      <c r="D333" s="18"/>
+      <c r="D333" s="21"/>
       <c r="E333" s="4" t="s">
         <v>217</v>
       </c>
@@ -5893,11 +5891,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="18"/>
-      <c r="B334" s="18"/>
+    <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A334" s="21"/>
+      <c r="B334" s="21"/>
       <c r="C334" s="6"/>
-      <c r="D334" s="19"/>
+      <c r="D334" s="22"/>
       <c r="E334" s="4" t="s">
         <v>88</v>
       </c>
@@ -5905,11 +5903,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="18"/>
-      <c r="B335" s="18"/>
+    <row r="335" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A335" s="21"/>
+      <c r="B335" s="21"/>
       <c r="C335" s="6"/>
-      <c r="D335" s="24" t="s">
+      <c r="D335" s="20" t="s">
         <v>218</v>
       </c>
       <c r="E335" s="4" t="s">
@@ -5919,11 +5917,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="18"/>
-      <c r="B336" s="18"/>
+    <row r="336" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A336" s="21"/>
+      <c r="B336" s="21"/>
       <c r="C336" s="6"/>
-      <c r="D336" s="19"/>
+      <c r="D336" s="22"/>
       <c r="E336" s="4" t="s">
         <v>147</v>
       </c>
@@ -5931,9 +5929,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="18"/>
-      <c r="B337" s="18"/>
+    <row r="337" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A337" s="21"/>
+      <c r="B337" s="21"/>
       <c r="C337" s="6"/>
       <c r="D337" s="3" t="s">
         <v>117</v>
@@ -5945,9 +5943,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="19"/>
-      <c r="B338" s="19"/>
+    <row r="338" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A338" s="22"/>
+      <c r="B338" s="22"/>
       <c r="C338" s="6"/>
       <c r="D338" s="3" t="s">
         <v>122</v>
@@ -5959,21 +5957,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="29" t="s">
+    <row r="339" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A339" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B339" s="22"/>
-      <c r="C339" s="22"/>
-      <c r="D339" s="22"/>
-      <c r="E339" s="23"/>
+      <c r="B339" s="18"/>
+      <c r="C339" s="18"/>
+      <c r="D339" s="18"/>
+      <c r="E339" s="19"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="17" t="s">
+    <row r="340" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A340" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B340" s="20" t="s">
+      <c r="B340" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C340" s="3" t="s">
@@ -5989,13 +5987,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="18"/>
-      <c r="B341" s="18"/>
+    <row r="341" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A341" s="21"/>
+      <c r="B341" s="21"/>
       <c r="C341" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D341" s="28" t="s">
+      <c r="D341" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E341" s="13" t="s">
@@ -6005,13 +6003,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="18"/>
-      <c r="B342" s="18"/>
+    <row r="342" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A342" s="21"/>
+      <c r="B342" s="21"/>
       <c r="C342" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D342" s="19"/>
+      <c r="D342" s="22"/>
       <c r="E342" s="13" t="s">
         <v>80</v>
       </c>
@@ -6019,9 +6017,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="18"/>
-      <c r="B343" s="18"/>
+    <row r="343" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A343" s="21"/>
+      <c r="B343" s="21"/>
       <c r="C343" s="3" t="s">
         <v>64</v>
       </c>
@@ -6035,9 +6033,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="18"/>
-      <c r="B344" s="18"/>
+    <row r="344" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A344" s="21"/>
+      <c r="B344" s="21"/>
       <c r="C344" s="6"/>
       <c r="D344" s="12" t="s">
         <v>196</v>
@@ -6049,9 +6047,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="18"/>
-      <c r="B345" s="18"/>
+    <row r="345" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A345" s="21"/>
+      <c r="B345" s="21"/>
       <c r="C345" s="6"/>
       <c r="D345" s="3" t="s">
         <v>197</v>
@@ -6063,9 +6061,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="18"/>
-      <c r="B346" s="18"/>
+    <row r="346" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A346" s="21"/>
+      <c r="B346" s="21"/>
       <c r="C346" s="6"/>
       <c r="D346" s="3" t="s">
         <v>198</v>
@@ -6077,11 +6075,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="18"/>
-      <c r="B347" s="18"/>
+    <row r="347" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A347" s="21"/>
+      <c r="B347" s="21"/>
       <c r="C347" s="6"/>
-      <c r="D347" s="24" t="s">
+      <c r="D347" s="20" t="s">
         <v>223</v>
       </c>
       <c r="E347" s="4" t="s">
@@ -6091,11 +6089,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="18"/>
-      <c r="B348" s="18"/>
+    <row r="348" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A348" s="21"/>
+      <c r="B348" s="21"/>
       <c r="C348" s="6"/>
-      <c r="D348" s="19"/>
+      <c r="D348" s="22"/>
       <c r="E348" s="4" t="s">
         <v>225</v>
       </c>
@@ -6103,9 +6101,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="19"/>
-      <c r="B349" s="19"/>
+    <row r="349" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A349" s="22"/>
+      <c r="B349" s="22"/>
       <c r="C349" s="6"/>
       <c r="D349" s="3" t="s">
         <v>206</v>
@@ -6117,21 +6115,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="29" t="s">
+    <row r="350" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A350" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B350" s="22"/>
-      <c r="C350" s="22"/>
-      <c r="D350" s="22"/>
-      <c r="E350" s="23"/>
+      <c r="B350" s="18"/>
+      <c r="C350" s="18"/>
+      <c r="D350" s="18"/>
+      <c r="E350" s="19"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="17" t="s">
+    <row r="351" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A351" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B351" s="20" t="s">
+      <c r="B351" s="26" t="s">
         <v>227</v>
       </c>
       <c r="C351" s="3" t="s">
@@ -6147,9 +6145,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="18"/>
-      <c r="B352" s="18"/>
+    <row r="352" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A352" s="21"/>
+      <c r="B352" s="21"/>
       <c r="C352" s="6" t="s">
         <v>228</v>
       </c>
@@ -6163,9 +6161,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="18"/>
-      <c r="B353" s="18"/>
+    <row r="353" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A353" s="21"/>
+      <c r="B353" s="21"/>
       <c r="C353" s="6" t="s">
         <v>29</v>
       </c>
@@ -6179,9 +6177,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="18"/>
-      <c r="B354" s="18"/>
+    <row r="354" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A354" s="21"/>
+      <c r="B354" s="21"/>
       <c r="C354" s="3" t="s">
         <v>64</v>
       </c>
@@ -6195,11 +6193,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="18"/>
-      <c r="B355" s="18"/>
+    <row r="355" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A355" s="21"/>
+      <c r="B355" s="21"/>
       <c r="C355" s="6"/>
-      <c r="D355" s="28" t="s">
+      <c r="D355" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E355" s="13" t="s">
@@ -6209,11 +6207,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="18"/>
-      <c r="B356" s="18"/>
+    <row r="356" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A356" s="21"/>
+      <c r="B356" s="21"/>
       <c r="C356" s="6"/>
-      <c r="D356" s="19"/>
+      <c r="D356" s="22"/>
       <c r="E356" s="13" t="s">
         <v>80</v>
       </c>
@@ -6221,9 +6219,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" s="18"/>
-      <c r="B357" s="18"/>
+    <row r="357" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A357" s="21"/>
+      <c r="B357" s="21"/>
       <c r="C357" s="6"/>
       <c r="D357" s="12" t="s">
         <v>53</v>
@@ -6235,9 +6233,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" s="18"/>
-      <c r="B358" s="18"/>
+    <row r="358" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A358" s="21"/>
+      <c r="B358" s="21"/>
       <c r="C358" s="6"/>
       <c r="D358" s="12" t="s">
         <v>196</v>
@@ -6249,9 +6247,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="18"/>
-      <c r="B359" s="18"/>
+    <row r="359" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A359" s="21"/>
+      <c r="B359" s="21"/>
       <c r="C359" s="6"/>
       <c r="D359" s="3" t="s">
         <v>229</v>
@@ -6263,11 +6261,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" s="18"/>
-      <c r="B360" s="18"/>
+    <row r="360" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A360" s="21"/>
+      <c r="B360" s="21"/>
       <c r="C360" s="6"/>
-      <c r="D360" s="24" t="s">
+      <c r="D360" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E360" s="4" t="s">
@@ -6277,11 +6275,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="18"/>
-      <c r="B361" s="18"/>
+    <row r="361" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A361" s="21"/>
+      <c r="B361" s="21"/>
       <c r="C361" s="6"/>
-      <c r="D361" s="18"/>
+      <c r="D361" s="21"/>
       <c r="E361" s="4" t="s">
         <v>201</v>
       </c>
@@ -6289,11 +6287,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="18"/>
-      <c r="B362" s="18"/>
+    <row r="362" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A362" s="21"/>
+      <c r="B362" s="21"/>
       <c r="C362" s="6"/>
-      <c r="D362" s="19"/>
+      <c r="D362" s="22"/>
       <c r="E362" s="4" t="s">
         <v>88</v>
       </c>
@@ -6301,9 +6299,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363" s="18"/>
-      <c r="B363" s="18"/>
+    <row r="363" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A363" s="21"/>
+      <c r="B363" s="21"/>
       <c r="C363" s="6"/>
       <c r="D363" s="3" t="s">
         <v>202</v>
@@ -6315,9 +6313,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="18"/>
-      <c r="B364" s="18"/>
+    <row r="364" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A364" s="21"/>
+      <c r="B364" s="21"/>
       <c r="C364" s="6"/>
       <c r="D364" s="3" t="s">
         <v>203</v>
@@ -6329,11 +6327,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="18"/>
-      <c r="B365" s="18"/>
+    <row r="365" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A365" s="21"/>
+      <c r="B365" s="21"/>
       <c r="C365" s="6"/>
-      <c r="D365" s="24" t="s">
+      <c r="D365" s="20" t="s">
         <v>204</v>
       </c>
       <c r="E365" s="4" t="s">
@@ -6343,11 +6341,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" s="18"/>
-      <c r="B366" s="18"/>
+    <row r="366" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A366" s="21"/>
+      <c r="B366" s="21"/>
       <c r="C366" s="6"/>
-      <c r="D366" s="19"/>
+      <c r="D366" s="22"/>
       <c r="E366" s="4" t="s">
         <v>98</v>
       </c>
@@ -6355,9 +6353,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="18"/>
-      <c r="B367" s="18"/>
+    <row r="367" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A367" s="21"/>
+      <c r="B367" s="21"/>
       <c r="C367" s="6"/>
       <c r="D367" s="3" t="s">
         <v>205</v>
@@ -6369,9 +6367,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="19"/>
-      <c r="B368" s="19"/>
+    <row r="368" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A368" s="22"/>
+      <c r="B368" s="22"/>
       <c r="C368" s="6"/>
       <c r="D368" s="3" t="s">
         <v>206</v>
@@ -6383,19 +6381,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A369" s="26"/>
-      <c r="B369" s="22"/>
-      <c r="C369" s="22"/>
-      <c r="D369" s="22"/>
-      <c r="E369" s="23"/>
+    <row r="369" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A369" s="17"/>
+      <c r="B369" s="18"/>
+      <c r="C369" s="18"/>
+      <c r="D369" s="18"/>
+      <c r="E369" s="19"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A370" s="17" t="s">
+    <row r="370" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A370" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B370" s="20" t="s">
+      <c r="B370" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C370" s="3" t="s">
@@ -6411,9 +6409,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A371" s="18"/>
-      <c r="B371" s="18"/>
+    <row r="371" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A371" s="21"/>
+      <c r="B371" s="21"/>
       <c r="C371" s="6" t="s">
         <v>228</v>
       </c>
@@ -6427,9 +6425,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" s="18"/>
-      <c r="B372" s="18"/>
+    <row r="372" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A372" s="21"/>
+      <c r="B372" s="21"/>
       <c r="C372" s="6" t="s">
         <v>29</v>
       </c>
@@ -6443,13 +6441,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="18"/>
-      <c r="B373" s="18"/>
+    <row r="373" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A373" s="21"/>
+      <c r="B373" s="21"/>
       <c r="C373" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D373" s="24" t="s">
+      <c r="D373" s="20" t="s">
         <v>163</v>
       </c>
       <c r="E373" s="4" t="s">
@@ -6459,11 +6457,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374" s="18"/>
-      <c r="B374" s="18"/>
+    <row r="374" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A374" s="21"/>
+      <c r="B374" s="21"/>
       <c r="C374" s="6"/>
-      <c r="D374" s="19"/>
+      <c r="D374" s="22"/>
       <c r="E374" s="4" t="s">
         <v>80</v>
       </c>
@@ -6471,9 +6469,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" s="18"/>
-      <c r="B375" s="18"/>
+    <row r="375" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A375" s="21"/>
+      <c r="B375" s="21"/>
       <c r="C375" s="6"/>
       <c r="D375" s="3" t="s">
         <v>164</v>
@@ -6485,9 +6483,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376" s="18"/>
-      <c r="B376" s="18"/>
+    <row r="376" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A376" s="21"/>
+      <c r="B376" s="21"/>
       <c r="C376" s="6"/>
       <c r="D376" s="3" t="s">
         <v>165</v>
@@ -6499,9 +6497,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377" s="18"/>
-      <c r="B377" s="18"/>
+    <row r="377" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A377" s="21"/>
+      <c r="B377" s="21"/>
       <c r="C377" s="6"/>
       <c r="D377" s="3" t="s">
         <v>229</v>
@@ -6513,11 +6511,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378" s="18"/>
-      <c r="B378" s="18"/>
+    <row r="378" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A378" s="21"/>
+      <c r="B378" s="21"/>
       <c r="C378" s="6"/>
-      <c r="D378" s="24" t="s">
+      <c r="D378" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E378" s="4" t="s">
@@ -6527,11 +6525,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="18"/>
-      <c r="B379" s="18"/>
+    <row r="379" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A379" s="21"/>
+      <c r="B379" s="21"/>
       <c r="C379" s="6"/>
-      <c r="D379" s="18"/>
+      <c r="D379" s="21"/>
       <c r="E379" s="4" t="s">
         <v>201</v>
       </c>
@@ -6539,11 +6537,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="18"/>
-      <c r="B380" s="18"/>
+    <row r="380" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A380" s="21"/>
+      <c r="B380" s="21"/>
       <c r="C380" s="6"/>
-      <c r="D380" s="19"/>
+      <c r="D380" s="22"/>
       <c r="E380" s="4" t="s">
         <v>209</v>
       </c>
@@ -6551,9 +6549,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="18"/>
-      <c r="B381" s="18"/>
+    <row r="381" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A381" s="21"/>
+      <c r="B381" s="21"/>
       <c r="C381" s="6"/>
       <c r="D381" s="3" t="s">
         <v>210</v>
@@ -6565,9 +6563,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382" s="18"/>
-      <c r="B382" s="18"/>
+    <row r="382" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A382" s="21"/>
+      <c r="B382" s="21"/>
       <c r="C382" s="6"/>
       <c r="D382" s="3" t="s">
         <v>211</v>
@@ -6579,9 +6577,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383" s="19"/>
-      <c r="B383" s="19"/>
+    <row r="383" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A383" s="22"/>
+      <c r="B383" s="22"/>
       <c r="C383" s="6"/>
       <c r="D383" s="3" t="s">
         <v>55</v>
@@ -6593,19 +6591,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384" s="26"/>
-      <c r="B384" s="22"/>
-      <c r="C384" s="22"/>
-      <c r="D384" s="22"/>
-      <c r="E384" s="23"/>
+    <row r="384" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A384" s="17"/>
+      <c r="B384" s="18"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="18"/>
+      <c r="E384" s="19"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="17" t="s">
+    <row r="385" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A385" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B385" s="20" t="s">
+      <c r="B385" s="26" t="s">
         <v>233</v>
       </c>
       <c r="C385" s="3" t="s">
@@ -6621,9 +6619,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="18"/>
-      <c r="B386" s="18"/>
+    <row r="386" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A386" s="21"/>
+      <c r="B386" s="21"/>
       <c r="C386" s="6" t="s">
         <v>228</v>
       </c>
@@ -6637,9 +6635,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="18"/>
-      <c r="B387" s="18"/>
+    <row r="387" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A387" s="21"/>
+      <c r="B387" s="21"/>
       <c r="C387" s="6" t="s">
         <v>29</v>
       </c>
@@ -6653,13 +6651,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388" s="18"/>
-      <c r="B388" s="18"/>
+    <row r="388" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A388" s="21"/>
+      <c r="B388" s="21"/>
       <c r="C388" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D388" s="28" t="s">
+      <c r="D388" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E388" s="13" t="s">
@@ -6669,11 +6667,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="18"/>
-      <c r="B389" s="18"/>
+    <row r="389" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A389" s="21"/>
+      <c r="B389" s="21"/>
       <c r="C389" s="6"/>
-      <c r="D389" s="19"/>
+      <c r="D389" s="22"/>
       <c r="E389" s="13" t="s">
         <v>80</v>
       </c>
@@ -6681,9 +6679,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390" s="18"/>
-      <c r="B390" s="18"/>
+    <row r="390" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A390" s="21"/>
+      <c r="B390" s="21"/>
       <c r="C390" s="6"/>
       <c r="D390" s="12" t="s">
         <v>53</v>
@@ -6695,9 +6693,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391" s="18"/>
-      <c r="B391" s="18"/>
+    <row r="391" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A391" s="21"/>
+      <c r="B391" s="21"/>
       <c r="C391" s="6"/>
       <c r="D391" s="12" t="s">
         <v>196</v>
@@ -6709,9 +6707,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392" s="18"/>
-      <c r="B392" s="18"/>
+    <row r="392" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A392" s="21"/>
+      <c r="B392" s="21"/>
       <c r="C392" s="6"/>
       <c r="D392" s="3" t="s">
         <v>229</v>
@@ -6723,11 +6721,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="18"/>
-      <c r="B393" s="18"/>
+    <row r="393" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A393" s="21"/>
+      <c r="B393" s="21"/>
       <c r="C393" s="6"/>
-      <c r="D393" s="24" t="s">
+      <c r="D393" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E393" s="4" t="s">
@@ -6737,11 +6735,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" s="18"/>
-      <c r="B394" s="18"/>
+    <row r="394" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A394" s="21"/>
+      <c r="B394" s="21"/>
       <c r="C394" s="6"/>
-      <c r="D394" s="18"/>
+      <c r="D394" s="21"/>
       <c r="E394" s="4" t="s">
         <v>214</v>
       </c>
@@ -6749,11 +6747,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395" s="18"/>
-      <c r="B395" s="18"/>
+    <row r="395" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A395" s="21"/>
+      <c r="B395" s="21"/>
       <c r="C395" s="6"/>
-      <c r="D395" s="19"/>
+      <c r="D395" s="22"/>
       <c r="E395" s="4" t="s">
         <v>131</v>
       </c>
@@ -6761,9 +6759,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396" s="19"/>
-      <c r="B396" s="19"/>
+    <row r="396" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
       <c r="C396" s="6"/>
       <c r="D396" s="3" t="s">
         <v>234</v>
@@ -6775,19 +6773,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397" s="26"/>
-      <c r="B397" s="22"/>
-      <c r="C397" s="22"/>
-      <c r="D397" s="22"/>
-      <c r="E397" s="23"/>
+    <row r="397" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A397" s="17"/>
+      <c r="B397" s="18"/>
+      <c r="C397" s="18"/>
+      <c r="D397" s="18"/>
+      <c r="E397" s="19"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398" s="17" t="s">
+    <row r="398" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A398" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B398" s="20" t="s">
+      <c r="B398" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C398" s="3" t="s">
@@ -6803,9 +6801,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399" s="18"/>
-      <c r="B399" s="18"/>
+    <row r="399" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A399" s="21"/>
+      <c r="B399" s="21"/>
       <c r="C399" s="6" t="s">
         <v>228</v>
       </c>
@@ -6819,9 +6817,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="18"/>
-      <c r="B400" s="18"/>
+    <row r="400" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A400" s="21"/>
+      <c r="B400" s="21"/>
       <c r="C400" s="6" t="s">
         <v>29</v>
       </c>
@@ -6835,9 +6833,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="18"/>
-      <c r="B401" s="18"/>
+    <row r="401" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A401" s="21"/>
+      <c r="B401" s="21"/>
       <c r="C401" s="3" t="s">
         <v>64</v>
       </c>
@@ -6851,11 +6849,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402" s="18"/>
-      <c r="B402" s="18"/>
+    <row r="402" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A402" s="21"/>
+      <c r="B402" s="21"/>
       <c r="C402" s="6"/>
-      <c r="D402" s="28" t="s">
+      <c r="D402" s="24" t="s">
         <v>164</v>
       </c>
       <c r="E402" s="13" t="s">
@@ -6865,11 +6863,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403" s="18"/>
-      <c r="B403" s="18"/>
+    <row r="403" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A403" s="21"/>
+      <c r="B403" s="21"/>
       <c r="C403" s="6"/>
-      <c r="D403" s="19"/>
+      <c r="D403" s="22"/>
       <c r="E403" s="13" t="s">
         <v>80</v>
       </c>
@@ -6877,9 +6875,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404" s="18"/>
-      <c r="B404" s="18"/>
+    <row r="404" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A404" s="21"/>
+      <c r="B404" s="21"/>
       <c r="C404" s="6"/>
       <c r="D404" s="12" t="s">
         <v>53</v>
@@ -6891,9 +6889,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405" s="18"/>
-      <c r="B405" s="18"/>
+    <row r="405" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A405" s="21"/>
+      <c r="B405" s="21"/>
       <c r="C405" s="6"/>
       <c r="D405" s="12" t="s">
         <v>196</v>
@@ -6905,9 +6903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A406" s="18"/>
-      <c r="B406" s="18"/>
+    <row r="406" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A406" s="21"/>
+      <c r="B406" s="21"/>
       <c r="C406" s="6"/>
       <c r="D406" s="3" t="s">
         <v>229</v>
@@ -6919,11 +6917,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A407" s="18"/>
-      <c r="B407" s="18"/>
+    <row r="407" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A407" s="21"/>
+      <c r="B407" s="21"/>
       <c r="C407" s="6"/>
-      <c r="D407" s="24" t="s">
+      <c r="D407" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E407" s="4" t="s">
@@ -6933,11 +6931,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A408" s="18"/>
-      <c r="B408" s="18"/>
+    <row r="408" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A408" s="21"/>
+      <c r="B408" s="21"/>
       <c r="C408" s="6"/>
-      <c r="D408" s="18"/>
+      <c r="D408" s="21"/>
       <c r="E408" s="4" t="s">
         <v>217</v>
       </c>
@@ -6945,11 +6943,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A409" s="18"/>
-      <c r="B409" s="18"/>
+    <row r="409" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A409" s="21"/>
+      <c r="B409" s="21"/>
       <c r="C409" s="6"/>
-      <c r="D409" s="19"/>
+      <c r="D409" s="22"/>
       <c r="E409" s="4" t="s">
         <v>88</v>
       </c>
@@ -6957,11 +6955,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A410" s="18"/>
-      <c r="B410" s="18"/>
+    <row r="410" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A410" s="21"/>
+      <c r="B410" s="21"/>
       <c r="C410" s="6"/>
-      <c r="D410" s="24" t="s">
+      <c r="D410" s="20" t="s">
         <v>236</v>
       </c>
       <c r="E410" s="4" t="s">
@@ -6971,11 +6969,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A411" s="18"/>
-      <c r="B411" s="18"/>
+    <row r="411" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A411" s="21"/>
+      <c r="B411" s="21"/>
       <c r="C411" s="6"/>
-      <c r="D411" s="19"/>
+      <c r="D411" s="22"/>
       <c r="E411" s="4" t="s">
         <v>147</v>
       </c>
@@ -6983,9 +6981,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412" s="18"/>
-      <c r="B412" s="18"/>
+    <row r="412" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A412" s="21"/>
+      <c r="B412" s="21"/>
       <c r="C412" s="6"/>
       <c r="D412" s="3" t="s">
         <v>54</v>
@@ -6997,9 +6995,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="19"/>
-      <c r="B413" s="19"/>
+    <row r="413" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A413" s="22"/>
+      <c r="B413" s="22"/>
       <c r="C413" s="6"/>
       <c r="D413" s="3" t="s">
         <v>55</v>
@@ -7011,21 +7009,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="29" t="s">
+    <row r="414" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A414" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="B414" s="22"/>
-      <c r="C414" s="22"/>
-      <c r="D414" s="22"/>
-      <c r="E414" s="23"/>
+      <c r="B414" s="18"/>
+      <c r="C414" s="18"/>
+      <c r="D414" s="18"/>
+      <c r="E414" s="19"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="17" t="s">
+    <row r="415" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A415" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B415" s="20" t="s">
+      <c r="B415" s="26" t="s">
         <v>239</v>
       </c>
       <c r="C415" s="3" t="s">
@@ -7041,13 +7039,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="18"/>
-      <c r="B416" s="18"/>
+    <row r="416" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A416" s="21"/>
+      <c r="B416" s="21"/>
       <c r="C416" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D416" s="28" t="s">
+      <c r="D416" s="24" t="s">
         <v>240</v>
       </c>
       <c r="E416" s="13" t="s">
@@ -7057,13 +7055,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417" s="18"/>
-      <c r="B417" s="18"/>
+    <row r="417" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A417" s="21"/>
+      <c r="B417" s="21"/>
       <c r="C417" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D417" s="19"/>
+      <c r="D417" s="22"/>
       <c r="E417" s="13" t="s">
         <v>80</v>
       </c>
@@ -7071,9 +7069,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="18"/>
-      <c r="B418" s="18"/>
+    <row r="418" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A418" s="21"/>
+      <c r="B418" s="21"/>
       <c r="C418" s="3" t="s">
         <v>64</v>
       </c>
@@ -7087,9 +7085,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="18"/>
-      <c r="B419" s="18"/>
+    <row r="419" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A419" s="21"/>
+      <c r="B419" s="21"/>
       <c r="C419" s="6"/>
       <c r="D419" s="12" t="s">
         <v>242</v>
@@ -7101,9 +7099,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="18"/>
-      <c r="B420" s="18"/>
+    <row r="420" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A420" s="21"/>
+      <c r="B420" s="21"/>
       <c r="C420" s="6"/>
       <c r="D420" s="3" t="s">
         <v>243</v>
@@ -7115,11 +7113,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="18"/>
-      <c r="B421" s="18"/>
+    <row r="421" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A421" s="21"/>
+      <c r="B421" s="21"/>
       <c r="C421" s="6"/>
-      <c r="D421" s="24" t="s">
+      <c r="D421" s="20" t="s">
         <v>244</v>
       </c>
       <c r="E421" s="7" t="s">
@@ -7129,11 +7127,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="18"/>
-      <c r="B422" s="18"/>
+    <row r="422" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A422" s="21"/>
+      <c r="B422" s="21"/>
       <c r="C422" s="6"/>
-      <c r="D422" s="19"/>
+      <c r="D422" s="22"/>
       <c r="E422" s="4" t="s">
         <v>225</v>
       </c>
@@ -7141,9 +7139,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="19"/>
-      <c r="B423" s="19"/>
+    <row r="423" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A423" s="22"/>
+      <c r="B423" s="22"/>
       <c r="C423" s="6"/>
       <c r="D423" s="3" t="s">
         <v>246</v>
@@ -7158,105 +7156,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="130">
-    <mergeCell ref="A307:E307"/>
-    <mergeCell ref="D407:D409"/>
-    <mergeCell ref="D410:D411"/>
-    <mergeCell ref="A414:E414"/>
-    <mergeCell ref="D416:D417"/>
-    <mergeCell ref="D421:D422"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="D378:D380"/>
-    <mergeCell ref="A384:E384"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="D393:D395"/>
-    <mergeCell ref="A397:E397"/>
-    <mergeCell ref="D402:D403"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A290:E290"/>
-    <mergeCell ref="D294:D295"/>
-    <mergeCell ref="D300:D302"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="A206:A220"/>
-    <mergeCell ref="A222:A236"/>
-    <mergeCell ref="B222:B236"/>
-    <mergeCell ref="A238:A252"/>
-    <mergeCell ref="B238:B252"/>
-    <mergeCell ref="A254:A268"/>
-    <mergeCell ref="B254:B268"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="A253:E253"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="D360:D362"/>
-    <mergeCell ref="D365:D366"/>
-    <mergeCell ref="A369:E369"/>
-    <mergeCell ref="D161:D166"/>
-    <mergeCell ref="D167:D170"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="A145:A172"/>
-    <mergeCell ref="B145:B172"/>
-    <mergeCell ref="A174:A188"/>
-    <mergeCell ref="B174:B188"/>
-    <mergeCell ref="A190:A204"/>
-    <mergeCell ref="B190:B204"/>
-    <mergeCell ref="B206:B220"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="A237:E237"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="D326:D327"/>
-    <mergeCell ref="D332:D334"/>
-    <mergeCell ref="D335:D336"/>
-    <mergeCell ref="A339:E339"/>
-    <mergeCell ref="D341:D342"/>
-    <mergeCell ref="D347:D348"/>
-    <mergeCell ref="A350:E350"/>
-    <mergeCell ref="D355:D356"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A322:A338"/>
-    <mergeCell ref="A340:A349"/>
-    <mergeCell ref="A351:A368"/>
-    <mergeCell ref="A370:A383"/>
-    <mergeCell ref="A385:A396"/>
-    <mergeCell ref="A398:A413"/>
-    <mergeCell ref="A415:A423"/>
-    <mergeCell ref="B340:B349"/>
-    <mergeCell ref="B351:B368"/>
-    <mergeCell ref="B370:B383"/>
-    <mergeCell ref="B385:B396"/>
-    <mergeCell ref="B398:B413"/>
-    <mergeCell ref="B415:B423"/>
-    <mergeCell ref="A270:A289"/>
-    <mergeCell ref="B270:B289"/>
-    <mergeCell ref="A291:A306"/>
-    <mergeCell ref="B291:B306"/>
-    <mergeCell ref="A308:A320"/>
-    <mergeCell ref="B308:B320"/>
-    <mergeCell ref="B322:B338"/>
-    <mergeCell ref="D311:D312"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="A116:A143"/>
-    <mergeCell ref="B116:B143"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D132:D137"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:A38"/>
+    <mergeCell ref="B4:B38"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A39:E39"/>
     <mergeCell ref="A115:E115"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D30:D33"/>
@@ -7279,15 +7187,105 @@
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="D103:D108"/>
     <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:A38"/>
-    <mergeCell ref="B4:B38"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A116:A143"/>
+    <mergeCell ref="B116:B143"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D132:D137"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="A415:A423"/>
+    <mergeCell ref="B340:B349"/>
+    <mergeCell ref="B351:B368"/>
+    <mergeCell ref="B370:B383"/>
+    <mergeCell ref="B385:B396"/>
+    <mergeCell ref="B398:B413"/>
+    <mergeCell ref="B415:B423"/>
+    <mergeCell ref="A270:A289"/>
+    <mergeCell ref="B270:B289"/>
+    <mergeCell ref="A291:A306"/>
+    <mergeCell ref="B291:B306"/>
+    <mergeCell ref="A308:A320"/>
+    <mergeCell ref="B308:B320"/>
+    <mergeCell ref="B322:B338"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A322:A338"/>
+    <mergeCell ref="A340:A349"/>
+    <mergeCell ref="A351:A368"/>
+    <mergeCell ref="A370:A383"/>
+    <mergeCell ref="A385:A396"/>
+    <mergeCell ref="A398:A413"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="D161:D166"/>
+    <mergeCell ref="D167:D170"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="A145:A172"/>
+    <mergeCell ref="B145:B172"/>
+    <mergeCell ref="A174:A188"/>
+    <mergeCell ref="B174:B188"/>
+    <mergeCell ref="A190:A204"/>
+    <mergeCell ref="B190:B204"/>
+    <mergeCell ref="A206:A220"/>
+    <mergeCell ref="A222:A236"/>
+    <mergeCell ref="B222:B236"/>
+    <mergeCell ref="A238:A252"/>
+    <mergeCell ref="B238:B252"/>
+    <mergeCell ref="A254:A268"/>
+    <mergeCell ref="B254:B268"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="A253:E253"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="B206:B220"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A290:E290"/>
+    <mergeCell ref="D294:D295"/>
+    <mergeCell ref="D300:D302"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="A307:E307"/>
+    <mergeCell ref="D407:D409"/>
+    <mergeCell ref="D410:D411"/>
+    <mergeCell ref="A414:E414"/>
+    <mergeCell ref="D416:D417"/>
+    <mergeCell ref="D421:D422"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="D378:D380"/>
+    <mergeCell ref="A384:E384"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="D393:D395"/>
+    <mergeCell ref="A397:E397"/>
+    <mergeCell ref="D402:D403"/>
+    <mergeCell ref="D360:D362"/>
+    <mergeCell ref="D365:D366"/>
+    <mergeCell ref="A369:E369"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="D326:D327"/>
+    <mergeCell ref="D332:D334"/>
+    <mergeCell ref="D335:D336"/>
+    <mergeCell ref="A339:E339"/>
+    <mergeCell ref="D341:D342"/>
+    <mergeCell ref="D347:D348"/>
+    <mergeCell ref="A350:E350"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
